--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267896.198236482</v>
+        <v>277979.5875005297</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1854032.836100644</v>
+        <v>2166848.930985701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24124066.75146578</v>
+        <v>23965084.17553428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4202254.965401043</v>
+        <v>4247207.344653206</v>
       </c>
     </row>
     <row r="11">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>13.94541175950346</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>13.94541175950346</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4159,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>13.94541175950346</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>16.94095206933323</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>32.6152908998378</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>48.28962973034238</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.94095206933323</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>31.98198428042348</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>47.65632311092806</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.35288774337761</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.266613238828653</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>16.94095206933323</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>32.6152908998378</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>48.28962973034238</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>63.33066194143263</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>47.33807054208096</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>31.34547914272928</v>
       </c>
     </row>
   </sheetData>
@@ -8459,10 +8461,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>262.1171336583936</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>260.6727596612894</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
         <v>246.758517458259</v>
@@ -8532,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>158.8643559162101</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>156.5283879628043</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>158.8073274317979</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>145.2543769669952</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>160.2613470196622</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>152.4484465568465</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8690,19 +8692,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L11" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M11" t="n">
-        <v>200.3199103700812</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N11" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O11" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P11" t="n">
         <v>208.5255628951208</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L12" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N12" t="n">
-        <v>96.27980096165827</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O12" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P12" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8927,19 +8929,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L14" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M14" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N14" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O14" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P14" t="n">
         <v>208.5255628951208</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L15" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N15" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O15" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P15" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9164,19 +9166,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L17" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M17" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N17" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O17" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P17" t="n">
         <v>208.5255628951208</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L18" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N18" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O18" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P18" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9401,19 +9403,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L20" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M20" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N20" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O20" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P20" t="n">
         <v>208.5255628951208</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L21" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N21" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O21" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P21" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9638,19 +9640,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L23" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M23" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N23" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O23" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P23" t="n">
         <v>208.5255628951208</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L24" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M24" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N24" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O24" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P24" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9875,19 +9877,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L26" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M26" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N26" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O26" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P26" t="n">
         <v>208.5255628951208</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L27" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M27" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N27" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O27" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P27" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10112,19 +10114,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L29" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M29" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N29" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O29" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P29" t="n">
         <v>208.5255628951208</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L30" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M30" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N30" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O30" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P30" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10349,19 +10351,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L32" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M32" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N32" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O32" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P32" t="n">
         <v>208.5255628951208</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L33" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M33" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N33" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O33" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P33" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10586,19 +10588,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L35" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M35" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N35" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O35" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P35" t="n">
         <v>208.5255628951208</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L36" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M36" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N36" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O36" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P36" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10823,19 +10825,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L38" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M38" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N38" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O38" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L39" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M39" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N39" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O39" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P39" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11060,19 +11062,19 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>203.4233583632196</v>
       </c>
       <c r="L41" t="n">
-        <v>215.1060201295988</v>
+        <v>206.8897655221818</v>
       </c>
       <c r="M41" t="n">
-        <v>200.3199103700811</v>
+        <v>191.1777440165516</v>
       </c>
       <c r="N41" t="n">
-        <v>197.8755926931642</v>
+        <v>188.5854965301939</v>
       </c>
       <c r="O41" t="n">
-        <v>203.2816633332895</v>
+        <v>194.5092889627086</v>
       </c>
       <c r="P41" t="n">
         <v>208.5255628951208</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>128.4574862423794</v>
+        <v>123.9591504587257</v>
       </c>
       <c r="L42" t="n">
-        <v>115.6425992455544</v>
+        <v>109.5940316553169</v>
       </c>
       <c r="M42" t="n">
-        <v>111.0955404568352</v>
+        <v>104.0371473715302</v>
       </c>
       <c r="N42" t="n">
-        <v>96.27980096165828</v>
+        <v>89.03459321428942</v>
       </c>
       <c r="O42" t="n">
-        <v>115.4591779348292</v>
+        <v>108.831228312213</v>
       </c>
       <c r="P42" t="n">
-        <v>116.4907560372702</v>
+        <v>111.1712421347601</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>135.831616742848</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11297,22 +11299,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L44" t="n">
-        <v>215.1060201295988</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M44" t="n">
-        <v>200.3199103700811</v>
+        <v>79.56618338639396</v>
       </c>
       <c r="N44" t="n">
-        <v>197.8755926931642</v>
+        <v>74.91175508265087</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2816633332895</v>
+        <v>88.05272675066948</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>119.3474981460517</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>128.4574862423794</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L45" t="n">
-        <v>115.6425992455544</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M45" t="n">
-        <v>111.0955404568352</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N45" t="n">
-        <v>96.27980096165828</v>
+        <v>3.867139176217279</v>
       </c>
       <c r="O45" t="n">
-        <v>115.4591779348292</v>
+        <v>31.62881275264417</v>
       </c>
       <c r="P45" t="n">
-        <v>116.4907560372702</v>
+        <v>52.84847154512362</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>102.0933370417794</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,13 +11460,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>97.86576220322652</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>98.30980622961208</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>86.66567244570618</v>
       </c>
       <c r="O46" t="n">
         <v>105.6509998050918</v>
@@ -23033,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.1372257337943</v>
+        <v>419.2448920946117</v>
       </c>
       <c r="H8" t="n">
-        <v>350.0840728010472</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>252.5390011750733</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>102.1633490996273</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>44.7678260839346</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23057,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.82072992502536</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>58.0961346578143</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.0060719774896</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>213.6669190178523</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>234.3316595809324</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>223.7749849055099</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9046118134526</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.2808586212757</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>112.8724349482959</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>67.59235497006948</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.29425231795664</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>144.6542915277517</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>194.5628574600357</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.61586546681</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.8349197050291</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0170666797881</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I10" t="n">
-        <v>168.8870673881104</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>129.7236433787886</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>82.61516433249618</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>52.09548622449577</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>46.24466908004986</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>37.04796687835205</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>56.43963860165199</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>74.70280003544025</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.4497818638882</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
-        <v>209.4615981681609</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S10" t="n">
-        <v>237.7758219951765</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T10" t="n">
-        <v>224.3347225012506</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I11" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J11" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R11" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S11" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T11" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I12" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J12" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S12" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T12" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H13" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I13" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J13" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K13" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L13" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M13" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N13" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O13" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P13" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R13" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S13" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T13" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I14" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J14" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R14" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S14" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T14" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I15" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J15" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S15" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T15" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H16" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I16" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J16" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K16" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L16" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M16" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N16" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O16" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P16" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R16" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S16" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T16" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I17" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J17" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R17" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S17" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T17" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I18" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J18" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S18" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T18" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H19" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I19" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J19" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K19" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L19" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M19" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N19" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O19" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P19" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R19" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S19" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I20" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J20" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R20" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S20" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T20" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I21" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J21" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S21" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T21" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H22" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I22" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J22" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K22" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L22" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M22" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N22" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O22" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P22" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R22" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S22" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T22" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I23" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J23" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R23" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S23" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T23" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I24" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J24" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S24" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T24" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H25" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I25" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K25" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L25" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M25" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N25" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O25" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P25" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R25" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S25" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T25" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I26" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J26" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24482,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R26" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S26" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T26" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I27" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J27" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S27" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T27" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H28" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I28" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J28" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K28" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L28" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M28" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N28" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O28" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P28" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R28" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S28" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T28" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H29" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I29" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J29" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24719,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R29" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S29" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T29" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I30" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J30" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S30" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T30" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H31" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I31" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J31" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K31" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L31" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M31" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N31" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O31" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P31" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R31" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S31" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T31" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I32" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J32" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R32" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S32" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T32" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I33" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J33" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S33" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T33" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H34" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I34" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J34" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K34" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L34" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M34" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N34" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O34" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P34" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R34" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S34" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T34" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I35" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J35" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25193,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R35" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S35" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T35" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I36" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J36" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S36" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T36" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H37" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I37" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J37" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K37" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L37" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M37" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N37" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O37" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P37" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R37" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S37" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T37" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I38" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J38" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25430,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R38" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S38" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T38" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I39" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J39" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S39" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T39" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H40" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I40" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J40" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K40" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L40" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M40" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N40" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O40" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P40" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R40" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S40" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T40" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7332227459356</v>
       </c>
       <c r="H41" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9465772016394</v>
       </c>
       <c r="I41" t="n">
-        <v>238.9709136375527</v>
+        <v>236.9636759856512</v>
       </c>
       <c r="J41" t="n">
-        <v>72.29305613191724</v>
+        <v>67.87410050885586</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.00073346332248</v>
+        <v>78.37829432236464</v>
       </c>
       <c r="R41" t="n">
-        <v>191.5594972221508</v>
+        <v>188.2889663317739</v>
       </c>
       <c r="S41" t="n">
-        <v>226.3118737107229</v>
+        <v>225.1254414951025</v>
       </c>
       <c r="T41" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0064618261584</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1421454753127</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7163084132398</v>
+        <v>148.6884511582035</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4622442034314</v>
+        <v>125.193201766633</v>
       </c>
       <c r="I42" t="n">
-        <v>106.3891819146546</v>
+        <v>105.430061510991</v>
       </c>
       <c r="J42" t="n">
-        <v>49.80181311049407</v>
+        <v>47.16991341427537</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>132.9629628724363</v>
+        <v>131.2333694413202</v>
       </c>
       <c r="S42" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5477680960885</v>
       </c>
       <c r="T42" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7445863344682</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2243751997555</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6536978729753</v>
       </c>
       <c r="H43" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4058398457096</v>
       </c>
       <c r="I43" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4372326568916</v>
       </c>
       <c r="J43" t="n">
-        <v>118.5624291419324</v>
+        <v>116.9112598525832</v>
       </c>
       <c r="K43" t="n">
-        <v>64.27386075180667</v>
+        <v>61.5604823902426</v>
       </c>
       <c r="L43" t="n">
-        <v>28.62493233102187</v>
+        <v>25.15274221169333</v>
       </c>
       <c r="M43" t="n">
-        <v>21.49826081386603</v>
+        <v>17.83732317001242</v>
       </c>
       <c r="N43" t="n">
-        <v>12.88997288979596</v>
+        <v>9.31608416051521</v>
       </c>
       <c r="O43" t="n">
-        <v>34.12582106858778</v>
+        <v>30.82475637644394</v>
       </c>
       <c r="P43" t="n">
-        <v>55.60947430480697</v>
+        <v>52.78484318413026</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.2305528121096</v>
+        <v>123.2749246361811</v>
       </c>
       <c r="R43" t="n">
-        <v>202.3633127604856</v>
+        <v>201.3132056105407</v>
       </c>
       <c r="S43" t="n">
-        <v>235.0246264580731</v>
+        <v>234.6176197038384</v>
       </c>
       <c r="T43" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5604110370206</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6539891292468</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>358.2545748924751</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.7852877910533</v>
+        <v>404.0620104347787</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4797883449514</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I44" t="n">
-        <v>238.9709136375527</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29305613191724</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25904,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>191.5594972221508</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S44" t="n">
-        <v>226.3118737107229</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T44" t="n">
-        <v>222.2343765611613</v>
+        <v>202.9966044259374</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25931,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>366.4529019330917</v>
       </c>
     </row>
     <row r="45">
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7163084132398</v>
+        <v>134.3547018676904</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4622442034314</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I45" t="n">
-        <v>106.3891819146546</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J45" t="n">
-        <v>49.80181311049407</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>132.9629628724363</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S45" t="n">
-        <v>191.0652043902942</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T45" t="n">
-        <v>214.8568706212155</v>
+        <v>197.3466480815754</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2262079139026</v>
+        <v>221.3661611926204</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>250.8719180916534</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -26032,61 +26034,61 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>123.0942167330885</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6770524598119</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H46" t="n">
-        <v>165.6134833541297</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I46" t="n">
-        <v>164.1395687773966</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J46" t="n">
-        <v>118.5624291419324</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K46" t="n">
-        <v>64.27386075180667</v>
+        <v>9.789855897623505</v>
       </c>
       <c r="L46" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>55.60947430480697</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.2305528121096</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R46" t="n">
-        <v>202.3633127604856</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S46" t="n">
-        <v>235.0246264580731</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T46" t="n">
-        <v>223.6601988171407</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>229.2763496990918</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>206.0867899228844</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>341501.2935575357</v>
+        <v>327887.1930444403</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373786.3225990104</v>
+        <v>377436.99546741</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373786.3225990104</v>
+        <v>422222.2850963989</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>68750.5404770601</v>
+      </c>
+      <c r="C2" t="n">
         <v>68750.54047706009</v>
       </c>
-      <c r="C2" t="n">
-        <v>68750.5404770601</v>
-      </c>
       <c r="D2" t="n">
-        <v>72033.99017712972</v>
+        <v>68750.54047706009</v>
       </c>
       <c r="E2" t="n">
-        <v>80205.3480719635</v>
+        <v>81178.20863285963</v>
       </c>
       <c r="F2" t="n">
-        <v>80205.34807196351</v>
+        <v>81178.20863285962</v>
       </c>
       <c r="G2" t="n">
-        <v>80205.34807196351</v>
+        <v>81178.20863285963</v>
       </c>
       <c r="H2" t="n">
-        <v>80205.34807196354</v>
+        <v>81178.20863285963</v>
       </c>
       <c r="I2" t="n">
-        <v>80205.34807196353</v>
+        <v>81178.20863285963</v>
       </c>
       <c r="J2" t="n">
-        <v>80205.34807196353</v>
+        <v>81178.20863285962</v>
       </c>
       <c r="K2" t="n">
-        <v>80205.34807196354</v>
+        <v>81178.20863285963</v>
       </c>
       <c r="L2" t="n">
-        <v>80205.34807196354</v>
+        <v>81178.20863285965</v>
       </c>
       <c r="M2" t="n">
-        <v>80205.34807196351</v>
+        <v>81178.20863285962</v>
       </c>
       <c r="N2" t="n">
-        <v>80205.34807196354</v>
+        <v>81178.20863285963</v>
       </c>
       <c r="O2" t="n">
-        <v>80205.34807196354</v>
+        <v>81178.20863285965</v>
       </c>
       <c r="P2" t="n">
-        <v>80205.34807196353</v>
+        <v>93455.06647326816</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22936.48595985283</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70333.56475421274</v>
+        <v>102255.3265714369</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>123907.4431782982</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26423,43 @@
         <v>26442.51556810003</v>
       </c>
       <c r="D4" t="n">
-        <v>25659.95201165956</v>
+        <v>26442.51556810003</v>
       </c>
       <c r="E4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="F4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="G4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="H4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="I4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="J4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="K4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="L4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="M4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="N4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="O4" t="n">
-        <v>22116.7195142469</v>
+        <v>21501.77300025597</v>
       </c>
       <c r="P4" t="n">
-        <v>22116.7195142469</v>
+        <v>12471.49218731836</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34211.44775812258</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="F5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="G5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="H5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="I5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="J5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="K5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="L5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="M5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="N5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="O5" t="n">
-        <v>2492.319237121088</v>
+        <v>2774.654960533286</v>
       </c>
       <c r="P5" t="n">
-        <v>2492.319237121088</v>
+        <v>7673.115963521716</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>8680.424908960071</v>
+      </c>
+      <c r="C6" t="n">
         <v>8680.424908960056</v>
       </c>
-      <c r="C6" t="n">
-        <v>8680.424908960071</v>
-      </c>
       <c r="D6" t="n">
-        <v>-10773.89555250525</v>
+        <v>8680.424908960056</v>
       </c>
       <c r="E6" t="n">
-        <v>-14737.25543361723</v>
+        <v>-45353.54589936649</v>
       </c>
       <c r="F6" t="n">
-        <v>55596.30932059552</v>
+        <v>56901.78067207037</v>
       </c>
       <c r="G6" t="n">
-        <v>55596.30932059552</v>
+        <v>56901.78067207038</v>
       </c>
       <c r="H6" t="n">
-        <v>55596.30932059555</v>
+        <v>56901.78067207038</v>
       </c>
       <c r="I6" t="n">
-        <v>55596.30932059554</v>
+        <v>56901.78067207038</v>
       </c>
       <c r="J6" t="n">
-        <v>55596.30932059554</v>
+        <v>56901.78067207037</v>
       </c>
       <c r="K6" t="n">
-        <v>55596.30932059555</v>
+        <v>56901.78067207038</v>
       </c>
       <c r="L6" t="n">
-        <v>55596.30932059555</v>
+        <v>56901.7806720704</v>
       </c>
       <c r="M6" t="n">
-        <v>55596.30932059552</v>
+        <v>56901.78067207037</v>
       </c>
       <c r="N6" t="n">
-        <v>55596.30932059555</v>
+        <v>56901.78067207038</v>
       </c>
       <c r="O6" t="n">
-        <v>55596.30932059555</v>
+        <v>56901.7806720704</v>
       </c>
       <c r="P6" t="n">
-        <v>55596.30932059554</v>
+        <v>-50596.98485587015</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="F3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="G3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="H3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="I3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="J3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="K3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="M3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="N3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="O3" t="n">
-        <v>114.3265705101416</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3265705101416</v>
+        <v>307.8206377069697</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>87.54456325681225</v>
+        <v>127.2777504831783</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>180.5428872237914</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1076663608174045</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.102638117721244</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.150807375412989</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.138047791426191</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.69556484482692</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>18.90527087887908</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>19.21117792655154</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>18.14057055117347</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.48255726849379</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.62675572172049</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.76319703769629</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.453447197126607</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4713094944781883</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008613308865392355</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05760658163923679</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.55635830162105</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.983384499421091</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.442558662678946</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.30219963250781</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12.50795536864218</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.59619395306451</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.9825117746715</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.70607120255999</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.00033048863637</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.353429614159418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.576661270548404</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.070016987904244</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2321949496774499</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003789906686791895</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04829542291583986</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4293902146517402</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.452375081869075</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.414486400149878</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.611050044222121</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.180212239687683</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>7.570527066707514</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>7.390516854021208</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6.826338504504349</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.841111877021211</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.044083095252736</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.171537834015854</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8416575066333181</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2063531706404066</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00263429579540945</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H11" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I11" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J11" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L11" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M11" t="n">
-        <v>80.70249416719157</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N11" t="n">
-        <v>82.00834489467677</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O11" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P11" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R11" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S11" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T11" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H12" t="n">
-        <v>2.374972719465396</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I12" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J12" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K12" t="n">
-        <v>39.70906930633854</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L12" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M12" t="n">
-        <v>62.30798092802719</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N12" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O12" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P12" t="n">
-        <v>46.9580210082127</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R12" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S12" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9911897952718879</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H13" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I13" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J13" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K13" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L13" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M13" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N13" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O13" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P13" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R13" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S13" t="n">
-        <v>3.592853043736745</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H14" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I14" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J14" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L14" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M14" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N14" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O14" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P14" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R14" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S14" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T14" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H15" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I15" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J15" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K15" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L15" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M15" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N15" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O15" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P15" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R15" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S15" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T15" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H16" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I16" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J16" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K16" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L16" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M16" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N16" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O16" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P16" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R16" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S16" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H17" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I17" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J17" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L17" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M17" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N17" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O17" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P17" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R17" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S17" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T17" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H18" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I18" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J18" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K18" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L18" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M18" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N18" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O18" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P18" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R18" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S18" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T18" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H19" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I19" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J19" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K19" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L19" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M19" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N19" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O19" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P19" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R19" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S19" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H20" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I20" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J20" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L20" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M20" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N20" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O20" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P20" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q20" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R20" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S20" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T20" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H21" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I21" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J21" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K21" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L21" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M21" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N21" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O21" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P21" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R21" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S21" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T21" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H22" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I22" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J22" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K22" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L22" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M22" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N22" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O22" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P22" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R22" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S22" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H23" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I23" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J23" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L23" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M23" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N23" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O23" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P23" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R23" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S23" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T23" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H24" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I24" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J24" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K24" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L24" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M24" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N24" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O24" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P24" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R24" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S24" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T24" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H25" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I25" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J25" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K25" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L25" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M25" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N25" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O25" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P25" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R25" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S25" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H26" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I26" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J26" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L26" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M26" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N26" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O26" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P26" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R26" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S26" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T26" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H27" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I27" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J27" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K27" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L27" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M27" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N27" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O27" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P27" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R27" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S27" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T27" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H28" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I28" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J28" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K28" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L28" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M28" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N28" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O28" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P28" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R28" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S28" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H29" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I29" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J29" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L29" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M29" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N29" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O29" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P29" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R29" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S29" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T29" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H30" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I30" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J30" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K30" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L30" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M30" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N30" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O30" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P30" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R30" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S30" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T30" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H31" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I31" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J31" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K31" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L31" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M31" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N31" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P31" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R31" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S31" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H32" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I32" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J32" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L32" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M32" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N32" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O32" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P32" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R32" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S32" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T32" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H33" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I33" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J33" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K33" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L33" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M33" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N33" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O33" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P33" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R33" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S33" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T33" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H34" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I34" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J34" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K34" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L34" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M34" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N34" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P34" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R34" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H35" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I35" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J35" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L35" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M35" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N35" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O35" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P35" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R35" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S35" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T35" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H36" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I36" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J36" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K36" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L36" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M36" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N36" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O36" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P36" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R36" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S36" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T36" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H37" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I37" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J37" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K37" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L37" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M37" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N37" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P37" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R37" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H38" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I38" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J38" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L38" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M38" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N38" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O38" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P38" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R38" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S38" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T38" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H39" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I39" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J39" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K39" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L39" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M39" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N39" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O39" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P39" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R39" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S39" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T39" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H40" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I40" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J40" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K40" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L40" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M40" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N40" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P40" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R40" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.459604303558358</v>
+        <v>0.5116693486760931</v>
       </c>
       <c r="H41" t="n">
-        <v>4.706922573817035</v>
+        <v>5.24013371712904</v>
       </c>
       <c r="I41" t="n">
-        <v>17.71889491293361</v>
+        <v>19.7261325648351</v>
       </c>
       <c r="J41" t="n">
-        <v>39.00834075913622</v>
+        <v>43.4272963821976</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>65.08625991165664</v>
       </c>
       <c r="L41" t="n">
-        <v>72.52900613378564</v>
+        <v>80.74526074120264</v>
       </c>
       <c r="M41" t="n">
-        <v>80.70249416719159</v>
+        <v>89.84466052072111</v>
       </c>
       <c r="N41" t="n">
-        <v>82.00834489467678</v>
+        <v>91.29844105764707</v>
       </c>
       <c r="O41" t="n">
-        <v>77.43815460116835</v>
+        <v>86.21052897174916</v>
       </c>
       <c r="P41" t="n">
-        <v>66.09167335707137</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q41" t="n">
-        <v>49.63209423588766</v>
+        <v>55.25453337684549</v>
       </c>
       <c r="R41" t="n">
-        <v>28.87061883339773</v>
+        <v>32.14114972377467</v>
       </c>
       <c r="S41" t="n">
-        <v>10.47323306733609</v>
+        <v>11.65966528295648</v>
       </c>
       <c r="T41" t="n">
-        <v>2.011917838826713</v>
+        <v>2.239832573829599</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04093354789408744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2737672368883457</v>
       </c>
       <c r="H42" t="n">
-        <v>2.374972719465395</v>
+        <v>2.64401515626376</v>
       </c>
       <c r="I42" t="n">
-        <v>8.466637533062377</v>
+        <v>9.425757936725939</v>
       </c>
       <c r="J42" t="n">
-        <v>23.23310052225435</v>
+        <v>25.86500021847305</v>
       </c>
       <c r="K42" t="n">
-        <v>39.70906930633853</v>
+        <v>44.20740508999221</v>
       </c>
       <c r="L42" t="n">
-        <v>53.3937440858921</v>
+        <v>59.44231167612963</v>
       </c>
       <c r="M42" t="n">
-        <v>62.30798092802718</v>
+        <v>69.36637401333215</v>
       </c>
       <c r="N42" t="n">
-        <v>63.95708778000839</v>
+        <v>71.20229552737725</v>
       </c>
       <c r="O42" t="n">
-        <v>58.50824028739296</v>
+        <v>65.13618991000916</v>
       </c>
       <c r="P42" t="n">
-        <v>46.95802100821271</v>
+        <v>52.27753491072279</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.39019347289776</v>
+        <v>34.94614764209831</v>
       </c>
       <c r="R42" t="n">
-        <v>15.26798992586383</v>
+        <v>16.99758335697993</v>
       </c>
       <c r="S42" t="n">
-        <v>4.56767005764575</v>
+        <v>5.085106351851506</v>
       </c>
       <c r="T42" t="n">
-        <v>0.991189795271888</v>
+        <v>1.103474082019253</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01801100242686486</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2295172549696657</v>
       </c>
       <c r="H43" t="n">
-        <v>1.832973540310141</v>
+        <v>2.040617048730302</v>
       </c>
       <c r="I43" t="n">
-        <v>6.199873692582764</v>
+        <v>6.902209813087767</v>
       </c>
       <c r="J43" t="n">
-        <v>14.57570063700609</v>
+        <v>16.22686992635536</v>
       </c>
       <c r="K43" t="n">
-        <v>23.95235362491163</v>
+        <v>26.6657319864757</v>
       </c>
       <c r="L43" t="n">
-        <v>30.65076613316158</v>
+        <v>34.12295625249012</v>
       </c>
       <c r="M43" t="n">
-        <v>32.31693533289134</v>
+        <v>35.97787297674495</v>
       </c>
       <c r="N43" t="n">
-        <v>31.5485108425773</v>
+        <v>35.12239957185805</v>
       </c>
       <c r="O43" t="n">
-        <v>29.14015603756857</v>
+        <v>32.4412207297124</v>
       </c>
       <c r="P43" t="n">
-        <v>24.93443760765448</v>
+        <v>27.75906872833119</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.26331214703139</v>
+        <v>19.21894032295992</v>
       </c>
       <c r="R43" t="n">
-        <v>9.269823241691153</v>
+        <v>10.31993039163606</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592853043736744</v>
+        <v>3.999859797971355</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9806646348703896</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01251912299834542</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.459604303558358</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H44" t="n">
-        <v>4.706922573817035</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I44" t="n">
-        <v>17.71889491293361</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J44" t="n">
-        <v>39.00834075913622</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L44" t="n">
-        <v>72.52900613378564</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M44" t="n">
-        <v>80.70249416719159</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N44" t="n">
-        <v>82.00834489467678</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O44" t="n">
-        <v>77.43815460116835</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P44" t="n">
-        <v>66.09167335707137</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q44" t="n">
-        <v>49.63209423588766</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R44" t="n">
-        <v>28.87061883339773</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S44" t="n">
-        <v>10.47323306733609</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T44" t="n">
-        <v>2.011917838826713</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H45" t="n">
-        <v>2.374972719465395</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I45" t="n">
-        <v>8.466637533062377</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J45" t="n">
-        <v>23.23310052225435</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K45" t="n">
-        <v>39.70906930633853</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L45" t="n">
-        <v>53.3937440858921</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M45" t="n">
-        <v>62.30798092802718</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N45" t="n">
-        <v>63.95708778000839</v>
+        <v>172.2024150508075</v>
       </c>
       <c r="O45" t="n">
-        <v>58.50824028739296</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P45" t="n">
-        <v>46.95802100821271</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.39019347289776</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R45" t="n">
-        <v>15.26798992586383</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S45" t="n">
-        <v>4.56767005764575</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T45" t="n">
-        <v>0.991189795271888</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H46" t="n">
-        <v>1.832973540310141</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I46" t="n">
-        <v>6.199873692582764</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J46" t="n">
-        <v>14.57570063700609</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K46" t="n">
-        <v>23.95235362491163</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L46" t="n">
-        <v>30.65076613316158</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M46" t="n">
-        <v>32.31693533289134</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N46" t="n">
-        <v>31.5485108425773</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O46" t="n">
-        <v>29.14015603756857</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P46" t="n">
-        <v>24.93443760765448</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.26331214703139</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R46" t="n">
-        <v>9.269823241691153</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592853043736744</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>15.1929618293841</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>15.1929618293841</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>15.83266548535816</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>15.19296182938409</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
